--- a/LabVIEW Install Documentation/Supporting Documents/Configurations/Configuration Matrix V2.xlsx
+++ b/LabVIEW Install Documentation/Supporting Documents/Configurations/Configuration Matrix V2.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.jci.com/personal/jbeachsc_jci_com/Documents/Documents/Projects/LabVIEW Install Documentation/Supporting Documents/Configurations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2125" documentId="8_{AAA51C53-7656-493C-924D-31355879246B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0DAFCED-4CFA-4398-B015-151DED64E271}"/>
+  <xr:revisionPtr revIDLastSave="2211" documentId="8_{AAA51C53-7656-493C-924D-31355879246B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73643C39-25B2-4996-95C7-4D3A5520C033}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7160913-C58D-4B00-B611-0B600A1B0B17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B7160913-C58D-4B00-B611-0B600A1B0B17}"/>
   </bookViews>
   <sheets>
     <sheet name="Originals" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="Cross Reference" sheetId="1" r:id="rId3"/>
-    <sheet name="Installs" sheetId="3" r:id="rId4"/>
+    <sheet name="Cross Reference" sheetId="1" r:id="rId2"/>
+    <sheet name="Installs" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Cross Reference'!$A$3:$R$296</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Installs!$A$3:$H$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Cross Reference'!$A$3:$R$296</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Installs!$A$3:$H$114</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Originals!$A$3:$I$553</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7684" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7538" uniqueCount="461">
   <si>
     <t>Corey</t>
   </si>
@@ -1426,62 +1425,17 @@
     <t>LabVIEW 2015 f2 15.0.0</t>
   </si>
   <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>CVI Runtime</t>
-  </si>
-  <si>
-    <t>NI-488.2 Runtime</t>
-  </si>
-  <si>
-    <t>LabVIEW 2015 (64-bit)</t>
-  </si>
-  <si>
-    <t>LabVIEW Runtime 2012 SP1 f9</t>
-  </si>
-  <si>
-    <t>LabVIEW Runtime 2012 SP1 f9 (64-bit)</t>
-  </si>
-  <si>
-    <t>DotNET</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>Common (64-bit)</t>
-  </si>
-  <si>
-    <t>NI PXI Platform Services Runtime</t>
-  </si>
-  <si>
-    <t>Soft Front Panel</t>
-  </si>
-  <si>
-    <t>LabVIEW Runtime 2013 SP1 f6</t>
-  </si>
-  <si>
-    <t>LabVIEW Runtime 2014 SP1 f11</t>
-  </si>
-  <si>
-    <t>LabVIEW Runtime 2015 SP1 f10</t>
-  </si>
-  <si>
-    <t>LabVIEW Runtime 2014 SP1 f11 (64-bit)</t>
-  </si>
-  <si>
-    <t>LabVIEW Runtime 2015 f2 (64-bit)</t>
-  </si>
-  <si>
-    <t>New</t>
+    <t>LabVIEW 2019</t>
+  </si>
+  <si>
+    <t>JKI VI Package Manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1542,12 +1496,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1619,12 +1567,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1830,11 +1778,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1998,6 +1959,9 @@
     <xf numFmtId="49" fontId="3" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2040,20 +2004,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2447,12 +2414,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8602A1-016F-424D-B7DE-56E6D30ECAB2}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J553"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B558" sqref="B558"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G554" sqref="G554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2470,28 +2436,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -2522,7 +2488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
@@ -2553,7 +2519,7 @@
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
@@ -2584,7 +2550,7 @@
       </c>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
@@ -2615,7 +2581,7 @@
       </c>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
@@ -2646,7 +2612,7 @@
       </c>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>0</v>
       </c>
@@ -2677,7 +2643,7 @@
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
@@ -2708,7 +2674,7 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>0</v>
       </c>
@@ -2739,7 +2705,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>0</v>
       </c>
@@ -2770,7 +2736,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>0</v>
       </c>
@@ -2801,7 +2767,7 @@
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>0</v>
       </c>
@@ -2832,7 +2798,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>0</v>
       </c>
@@ -2863,7 +2829,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>0</v>
       </c>
@@ -2894,7 +2860,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>0</v>
       </c>
@@ -2925,7 +2891,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>0</v>
       </c>
@@ -2956,7 +2922,7 @@
       </c>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>0</v>
       </c>
@@ -2987,7 +2953,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>0</v>
       </c>
@@ -3018,7 +2984,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>0</v>
       </c>
@@ -3049,7 +3015,7 @@
       </c>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>0</v>
       </c>
@@ -3080,7 +3046,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>0</v>
       </c>
@@ -3140,7 +3106,7 @@
       <c r="I23" s="18"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>0</v>
       </c>
@@ -3171,7 +3137,7 @@
       </c>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>0</v>
       </c>
@@ -3200,7 +3166,7 @@
       </c>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>0</v>
       </c>
@@ -3229,7 +3195,7 @@
       </c>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>0</v>
       </c>
@@ -3260,7 +3226,7 @@
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>0</v>
       </c>
@@ -3291,7 +3257,7 @@
       </c>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>0</v>
       </c>
@@ -3322,7 +3288,7 @@
       </c>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>0</v>
       </c>
@@ -3353,7 +3319,7 @@
       </c>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>0</v>
       </c>
@@ -3413,7 +3379,7 @@
       <c r="I32" s="18"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>0</v>
       </c>
@@ -3444,7 +3410,7 @@
       </c>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>0</v>
       </c>
@@ -3475,7 +3441,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>0</v>
       </c>
@@ -3535,7 +3501,7 @@
       <c r="I36" s="18"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>0</v>
       </c>
@@ -3595,7 +3561,7 @@
       <c r="I38" s="18"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>0</v>
       </c>
@@ -3626,7 +3592,7 @@
       </c>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>0</v>
       </c>
@@ -3657,7 +3623,7 @@
       </c>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>0</v>
       </c>
@@ -3688,7 +3654,7 @@
       </c>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>0</v>
       </c>
@@ -3719,7 +3685,7 @@
       </c>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>0</v>
       </c>
@@ -3750,7 +3716,7 @@
       </c>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>0</v>
       </c>
@@ -3781,7 +3747,7 @@
       </c>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>0</v>
       </c>
@@ -3812,7 +3778,7 @@
       </c>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>0</v>
       </c>
@@ -3843,7 +3809,7 @@
       </c>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>0</v>
       </c>
@@ -3874,7 +3840,7 @@
       </c>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>0</v>
       </c>
@@ -3905,7 +3871,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>0</v>
       </c>
@@ -3936,7 +3902,7 @@
       </c>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>0</v>
       </c>
@@ -3967,7 +3933,7 @@
       </c>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>0</v>
       </c>
@@ -3998,7 +3964,7 @@
       </c>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>0</v>
       </c>
@@ -4029,7 +3995,7 @@
       </c>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>0</v>
       </c>
@@ -4060,7 +4026,7 @@
       </c>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>0</v>
       </c>
@@ -4091,7 +4057,7 @@
       </c>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>0</v>
       </c>
@@ -4122,7 +4088,7 @@
       </c>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>0</v>
       </c>
@@ -4153,7 +4119,7 @@
       </c>
       <c r="J56" s="8"/>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>0</v>
       </c>
@@ -4184,7 +4150,7 @@
       </c>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>0</v>
       </c>
@@ -4215,7 +4181,7 @@
       </c>
       <c r="J58" s="8"/>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>0</v>
       </c>
@@ -4246,7 +4212,7 @@
       </c>
       <c r="J59" s="8"/>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>0</v>
       </c>
@@ -4277,7 +4243,7 @@
       </c>
       <c r="J60" s="8"/>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>0</v>
       </c>
@@ -4308,7 +4274,7 @@
       </c>
       <c r="J61" s="8"/>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>0</v>
       </c>
@@ -4339,7 +4305,7 @@
       </c>
       <c r="J62" s="8"/>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>0</v>
       </c>
@@ -4368,7 +4334,7 @@
       <c r="I63" s="18"/>
       <c r="J63" s="8"/>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>0</v>
       </c>
@@ -4399,7 +4365,7 @@
       </c>
       <c r="J64" s="8"/>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>0</v>
       </c>
@@ -4430,7 +4396,7 @@
       </c>
       <c r="J65" s="8"/>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>0</v>
       </c>
@@ -4461,7 +4427,7 @@
       </c>
       <c r="J66" s="8"/>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>0</v>
       </c>
@@ -4492,7 +4458,7 @@
       </c>
       <c r="J67" s="8"/>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>0</v>
       </c>
@@ -4523,7 +4489,7 @@
       </c>
       <c r="J68" s="8"/>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>0</v>
       </c>
@@ -4554,7 +4520,7 @@
       </c>
       <c r="J69" s="8"/>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>0</v>
       </c>
@@ -4585,7 +4551,7 @@
       </c>
       <c r="J70" s="8"/>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>0</v>
       </c>
@@ -4616,7 +4582,7 @@
       </c>
       <c r="J71" s="8"/>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>0</v>
       </c>
@@ -4763,7 +4729,7 @@
       <c r="I76" s="18"/>
       <c r="J76" s="8"/>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>0</v>
       </c>
@@ -4794,7 +4760,7 @@
       </c>
       <c r="J77" s="8"/>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>0</v>
       </c>
@@ -4825,7 +4791,7 @@
       </c>
       <c r="J78" s="8"/>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>0</v>
       </c>
@@ -4856,7 +4822,7 @@
       </c>
       <c r="J79" s="8"/>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
         <v>0</v>
       </c>
@@ -4887,7 +4853,7 @@
       </c>
       <c r="J80" s="8"/>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>0</v>
       </c>
@@ -4947,7 +4913,7 @@
       <c r="I82" s="18"/>
       <c r="J82" s="8"/>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
         <v>1</v>
       </c>
@@ -4976,7 +4942,7 @@
       <c r="I83" s="19"/>
       <c r="J83" s="8"/>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
         <v>1</v>
       </c>
@@ -5007,7 +4973,7 @@
       </c>
       <c r="J84" s="8"/>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
         <v>1</v>
       </c>
@@ -5038,7 +5004,7 @@
       </c>
       <c r="J85" s="8"/>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
         <v>1</v>
       </c>
@@ -5067,7 +5033,7 @@
       <c r="I86" s="19"/>
       <c r="J86" s="8"/>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
         <v>1</v>
       </c>
@@ -5098,7 +5064,7 @@
       </c>
       <c r="J87" s="8"/>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
         <v>1</v>
       </c>
@@ -5129,7 +5095,7 @@
       </c>
       <c r="J88" s="8"/>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
         <v>1</v>
       </c>
@@ -5160,7 +5126,7 @@
       </c>
       <c r="J89" s="8"/>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>1</v>
       </c>
@@ -5191,7 +5157,7 @@
       </c>
       <c r="J90" s="8"/>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
         <v>1</v>
       </c>
@@ -5222,7 +5188,7 @@
       </c>
       <c r="J91" s="8"/>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
         <v>1</v>
       </c>
@@ -5253,7 +5219,7 @@
       </c>
       <c r="J92" s="8"/>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>1</v>
       </c>
@@ -5282,7 +5248,7 @@
       <c r="I93" s="19"/>
       <c r="J93" s="8"/>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>1</v>
       </c>
@@ -5313,7 +5279,7 @@
       </c>
       <c r="J94" s="8"/>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
         <v>1</v>
       </c>
@@ -5344,7 +5310,7 @@
       </c>
       <c r="J95" s="8"/>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
         <v>1</v>
       </c>
@@ -5375,7 +5341,7 @@
       </c>
       <c r="J96" s="8"/>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
         <v>1</v>
       </c>
@@ -5406,7 +5372,7 @@
       </c>
       <c r="J97" s="8"/>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
         <v>1</v>
       </c>
@@ -5437,7 +5403,7 @@
       </c>
       <c r="J98" s="8"/>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
         <v>1</v>
       </c>
@@ -5468,7 +5434,7 @@
       </c>
       <c r="J99" s="8"/>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
         <v>1</v>
       </c>
@@ -5497,7 +5463,7 @@
       <c r="I100" s="19"/>
       <c r="J100" s="8"/>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
         <v>1</v>
       </c>
@@ -5528,7 +5494,7 @@
       </c>
       <c r="J101" s="8"/>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>1</v>
       </c>
@@ -5559,7 +5525,7 @@
       </c>
       <c r="J102" s="8"/>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
         <v>1</v>
       </c>
@@ -5590,7 +5556,7 @@
       </c>
       <c r="J103" s="8"/>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>1</v>
       </c>
@@ -5619,7 +5585,7 @@
       <c r="I104" s="19"/>
       <c r="J104" s="8"/>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
         <v>1</v>
       </c>
@@ -5648,7 +5614,7 @@
       <c r="I105" s="19"/>
       <c r="J105" s="8"/>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
         <v>1</v>
       </c>
@@ -5675,7 +5641,7 @@
       <c r="I106" s="19"/>
       <c r="J106" s="8"/>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
         <v>1</v>
       </c>
@@ -5704,7 +5670,7 @@
       <c r="I107" s="19"/>
       <c r="J107" s="8"/>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
         <v>1</v>
       </c>
@@ -5731,7 +5697,7 @@
       <c r="I108" s="19"/>
       <c r="J108" s="8"/>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
         <v>1</v>
       </c>
@@ -5762,7 +5728,7 @@
       </c>
       <c r="J109" s="8"/>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
         <v>1</v>
       </c>
@@ -5793,7 +5759,7 @@
       </c>
       <c r="J110" s="8"/>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
         <v>1</v>
       </c>
@@ -5824,7 +5790,7 @@
       </c>
       <c r="J111" s="8"/>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
         <v>1</v>
       </c>
@@ -5853,7 +5819,7 @@
       </c>
       <c r="J112" s="8"/>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
         <v>1</v>
       </c>
@@ -5882,7 +5848,7 @@
       </c>
       <c r="J113" s="8"/>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="19" t="s">
         <v>1</v>
       </c>
@@ -5913,7 +5879,7 @@
       </c>
       <c r="J114" s="8"/>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="19" t="s">
         <v>1</v>
       </c>
@@ -5944,7 +5910,7 @@
       </c>
       <c r="J115" s="8"/>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="19" t="s">
         <v>1</v>
       </c>
@@ -5975,7 +5941,7 @@
       </c>
       <c r="J116" s="8"/>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="19" t="s">
         <v>1</v>
       </c>
@@ -6006,7 +5972,7 @@
       </c>
       <c r="J117" s="8"/>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="19" t="s">
         <v>1</v>
       </c>
@@ -6064,7 +6030,7 @@
       <c r="I119" s="19"/>
       <c r="J119" s="8"/>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="19" t="s">
         <v>1</v>
       </c>
@@ -6095,7 +6061,7 @@
       </c>
       <c r="J120" s="8"/>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="19" t="s">
         <v>1</v>
       </c>
@@ -6124,7 +6090,7 @@
       <c r="I121" s="19"/>
       <c r="J121" s="8"/>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="19" t="s">
         <v>1</v>
       </c>
@@ -6182,7 +6148,7 @@
       <c r="I123" s="19"/>
       <c r="J123" s="8"/>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="19" t="s">
         <v>1</v>
       </c>
@@ -6242,7 +6208,7 @@
       <c r="I125" s="19"/>
       <c r="J125" s="8"/>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="19" t="s">
         <v>1</v>
       </c>
@@ -6273,7 +6239,7 @@
       </c>
       <c r="J126" s="8"/>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="19" t="s">
         <v>1</v>
       </c>
@@ -6304,7 +6270,7 @@
       </c>
       <c r="J127" s="8"/>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="19" t="s">
         <v>1</v>
       </c>
@@ -6335,7 +6301,7 @@
       </c>
       <c r="J128" s="8"/>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="19" t="s">
         <v>1</v>
       </c>
@@ -6364,7 +6330,7 @@
       </c>
       <c r="J129" s="8"/>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="19" t="s">
         <v>1</v>
       </c>
@@ -6395,7 +6361,7 @@
       </c>
       <c r="J130" s="8"/>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="19" t="s">
         <v>1</v>
       </c>
@@ -6426,7 +6392,7 @@
       </c>
       <c r="J131" s="8"/>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="19" t="s">
         <v>1</v>
       </c>
@@ -6457,7 +6423,7 @@
       </c>
       <c r="J132" s="8"/>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="19" t="s">
         <v>1</v>
       </c>
@@ -6488,7 +6454,7 @@
       </c>
       <c r="J133" s="8"/>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="19" t="s">
         <v>1</v>
       </c>
@@ -6517,7 +6483,7 @@
       </c>
       <c r="J134" s="8"/>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="19" t="s">
         <v>1</v>
       </c>
@@ -6548,7 +6514,7 @@
       </c>
       <c r="J135" s="8"/>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="19" t="s">
         <v>1</v>
       </c>
@@ -6579,7 +6545,7 @@
       </c>
       <c r="J136" s="8"/>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="19" t="s">
         <v>1</v>
       </c>
@@ -6610,7 +6576,7 @@
       </c>
       <c r="J137" s="8"/>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="19" t="s">
         <v>1</v>
       </c>
@@ -6641,7 +6607,7 @@
       </c>
       <c r="J138" s="8"/>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="19" t="s">
         <v>1</v>
       </c>
@@ -6670,7 +6636,7 @@
       </c>
       <c r="J139" s="8"/>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="19" t="s">
         <v>1</v>
       </c>
@@ -6701,7 +6667,7 @@
       </c>
       <c r="J140" s="8"/>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="19" t="s">
         <v>1</v>
       </c>
@@ -6732,7 +6698,7 @@
       </c>
       <c r="J141" s="8"/>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="19" t="s">
         <v>1</v>
       </c>
@@ -6763,7 +6729,7 @@
       </c>
       <c r="J142" s="8"/>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="19" t="s">
         <v>1</v>
       </c>
@@ -6794,7 +6760,7 @@
       </c>
       <c r="J143" s="8"/>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
         <v>1</v>
       </c>
@@ -6821,7 +6787,7 @@
       </c>
       <c r="J144" s="8"/>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
         <v>1</v>
       </c>
@@ -6852,7 +6818,7 @@
       </c>
       <c r="J145" s="8"/>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="19" t="s">
         <v>1</v>
       </c>
@@ -6883,7 +6849,7 @@
       </c>
       <c r="J146" s="8"/>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="19" t="s">
         <v>1</v>
       </c>
@@ -6914,7 +6880,7 @@
       </c>
       <c r="J147" s="8"/>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
         <v>1</v>
       </c>
@@ -6945,7 +6911,7 @@
       </c>
       <c r="J148" s="8"/>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
         <v>1</v>
       </c>
@@ -6971,7 +6937,7 @@
         <f t="shared" si="4"/>
         <v>NI-Industrial Communications for EtherCAT 15.0.0f3</v>
       </c>
-      <c r="I149" s="69" t="s">
+      <c r="I149" s="55" t="s">
         <v>448</v>
       </c>
       <c r="J149" s="8"/>
@@ -7005,7 +6971,7 @@
       <c r="I150" s="19"/>
       <c r="J150" s="8"/>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
         <v>1</v>
       </c>
@@ -7036,7 +7002,7 @@
       </c>
       <c r="J151" s="8"/>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
         <v>1</v>
       </c>
@@ -7067,7 +7033,7 @@
       </c>
       <c r="J152" s="8"/>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
         <v>1</v>
       </c>
@@ -7098,7 +7064,7 @@
       </c>
       <c r="J153" s="8"/>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
         <v>1</v>
       </c>
@@ -7129,7 +7095,7 @@
       </c>
       <c r="J154" s="8"/>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
         <v>1</v>
       </c>
@@ -7160,7 +7126,7 @@
       </c>
       <c r="J155" s="8"/>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
         <v>1</v>
       </c>
@@ -7191,7 +7157,7 @@
       </c>
       <c r="J156" s="8"/>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
         <v>1</v>
       </c>
@@ -7222,7 +7188,7 @@
       </c>
       <c r="J157" s="8"/>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="19" t="s">
         <v>1</v>
       </c>
@@ -7251,7 +7217,7 @@
       <c r="I158" s="19"/>
       <c r="J158" s="8"/>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="19" t="s">
         <v>1</v>
       </c>
@@ -7282,7 +7248,7 @@
       </c>
       <c r="J159" s="8"/>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
         <v>1</v>
       </c>
@@ -7313,7 +7279,7 @@
       </c>
       <c r="J160" s="8"/>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="19" t="s">
         <v>1</v>
       </c>
@@ -7344,7 +7310,7 @@
       </c>
       <c r="J161" s="8"/>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="19" t="s">
         <v>1</v>
       </c>
@@ -7375,7 +7341,7 @@
       </c>
       <c r="J162" s="8"/>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="19" t="s">
         <v>1</v>
       </c>
@@ -7406,7 +7372,7 @@
       </c>
       <c r="J163" s="8"/>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="19" t="s">
         <v>1</v>
       </c>
@@ -7435,7 +7401,7 @@
       <c r="I164" s="19"/>
       <c r="J164" s="8"/>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="19" t="s">
         <v>1</v>
       </c>
@@ -7464,7 +7430,7 @@
       <c r="I165" s="19"/>
       <c r="J165" s="8"/>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="19" t="s">
         <v>1</v>
       </c>
@@ -7493,7 +7459,7 @@
       <c r="I166" s="19"/>
       <c r="J166" s="8"/>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="19" t="s">
         <v>1</v>
       </c>
@@ -7553,7 +7519,7 @@
       <c r="I168" s="19"/>
       <c r="J168" s="8"/>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="19" t="s">
         <v>1</v>
       </c>
@@ -7584,7 +7550,7 @@
       </c>
       <c r="J169" s="8"/>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="19" t="s">
         <v>1</v>
       </c>
@@ -7644,7 +7610,7 @@
       <c r="I171" s="19"/>
       <c r="J171" s="8"/>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="21" t="s">
         <v>2</v>
       </c>
@@ -7675,7 +7641,7 @@
       </c>
       <c r="J172" s="8"/>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="21" t="s">
         <v>2</v>
       </c>
@@ -7706,7 +7672,7 @@
       </c>
       <c r="J173" s="8"/>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="21" t="s">
         <v>2</v>
       </c>
@@ -7737,7 +7703,7 @@
       </c>
       <c r="J174" s="8"/>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="21" t="s">
         <v>2</v>
       </c>
@@ -7768,7 +7734,7 @@
       </c>
       <c r="J175" s="8"/>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="21" t="s">
         <v>2</v>
       </c>
@@ -7799,7 +7765,7 @@
       </c>
       <c r="J176" s="8"/>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="s">
         <v>2</v>
       </c>
@@ -7830,7 +7796,7 @@
       </c>
       <c r="J177" s="8"/>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="21" t="s">
         <v>2</v>
       </c>
@@ -7861,7 +7827,7 @@
       </c>
       <c r="J178" s="8"/>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="21" t="s">
         <v>2</v>
       </c>
@@ -7892,7 +7858,7 @@
       </c>
       <c r="J179" s="8"/>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="21" t="s">
         <v>2</v>
       </c>
@@ -7923,7 +7889,7 @@
       </c>
       <c r="J180" s="8"/>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="21" t="s">
         <v>2</v>
       </c>
@@ -7954,7 +7920,7 @@
       </c>
       <c r="J181" s="8"/>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="21" t="s">
         <v>2</v>
       </c>
@@ -7985,7 +7951,7 @@
       </c>
       <c r="J182" s="8"/>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="21" t="s">
         <v>2</v>
       </c>
@@ -8016,7 +7982,7 @@
       </c>
       <c r="J183" s="8"/>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="21" t="s">
         <v>2</v>
       </c>
@@ -8047,7 +8013,7 @@
       </c>
       <c r="J184" s="8"/>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="21" t="s">
         <v>2</v>
       </c>
@@ -8078,7 +8044,7 @@
       </c>
       <c r="J185" s="8"/>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="21" t="s">
         <v>2</v>
       </c>
@@ -8109,7 +8075,7 @@
       </c>
       <c r="J186" s="8"/>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="21" t="s">
         <v>2</v>
       </c>
@@ -8140,7 +8106,7 @@
       </c>
       <c r="J187" s="8"/>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="21" t="s">
         <v>2</v>
       </c>
@@ -8171,7 +8137,7 @@
       </c>
       <c r="J188" s="8"/>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="21" t="s">
         <v>2</v>
       </c>
@@ -8202,7 +8168,7 @@
       </c>
       <c r="J189" s="8"/>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="21" t="s">
         <v>2</v>
       </c>
@@ -8233,7 +8199,7 @@
       </c>
       <c r="J190" s="8"/>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="21" t="s">
         <v>2</v>
       </c>
@@ -8264,7 +8230,7 @@
       </c>
       <c r="J191" s="8"/>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="21" t="s">
         <v>2</v>
       </c>
@@ -8324,7 +8290,7 @@
       <c r="I193" s="21"/>
       <c r="J193" s="8"/>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="21" t="s">
         <v>2</v>
       </c>
@@ -8355,7 +8321,7 @@
       </c>
       <c r="J194" s="8"/>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="21" t="s">
         <v>2</v>
       </c>
@@ -8386,7 +8352,7 @@
       </c>
       <c r="J195" s="8"/>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="21" t="s">
         <v>2</v>
       </c>
@@ -8413,7 +8379,7 @@
       <c r="I196" s="21"/>
       <c r="J196" s="8"/>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="21" t="s">
         <v>2</v>
       </c>
@@ -8440,7 +8406,7 @@
       <c r="I197" s="21"/>
       <c r="J197" s="8"/>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="21" t="s">
         <v>2</v>
       </c>
@@ -8469,7 +8435,7 @@
       <c r="I198" s="21"/>
       <c r="J198" s="8"/>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="21" t="s">
         <v>2</v>
       </c>
@@ -8498,7 +8464,7 @@
       <c r="I199" s="21"/>
       <c r="J199" s="8"/>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="21" t="s">
         <v>2</v>
       </c>
@@ -8529,7 +8495,7 @@
       </c>
       <c r="J200" s="8"/>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="21" t="s">
         <v>2</v>
       </c>
@@ -8560,7 +8526,7 @@
       </c>
       <c r="J201" s="8"/>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="21" t="s">
         <v>2</v>
       </c>
@@ -8620,7 +8586,7 @@
       <c r="I203" s="21"/>
       <c r="J203" s="8"/>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="21" t="s">
         <v>2</v>
       </c>
@@ -8651,7 +8617,7 @@
       </c>
       <c r="J204" s="8"/>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="21" t="s">
         <v>2</v>
       </c>
@@ -8682,7 +8648,7 @@
       </c>
       <c r="J205" s="8"/>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="21" t="s">
         <v>2</v>
       </c>
@@ -8742,7 +8708,7 @@
       <c r="I207" s="21"/>
       <c r="J207" s="8"/>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="21" t="s">
         <v>2</v>
       </c>
@@ -8802,7 +8768,7 @@
       <c r="I209" s="21"/>
       <c r="J209" s="8"/>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="21" t="s">
         <v>2</v>
       </c>
@@ -8833,7 +8799,7 @@
       </c>
       <c r="J210" s="8"/>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="21" t="s">
         <v>2</v>
       </c>
@@ -8864,7 +8830,7 @@
       </c>
       <c r="J211" s="8"/>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="21" t="s">
         <v>2</v>
       </c>
@@ -8895,7 +8861,7 @@
       </c>
       <c r="J212" s="8"/>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="21" t="s">
         <v>2</v>
       </c>
@@ -8924,7 +8890,7 @@
       </c>
       <c r="J213" s="8"/>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="21" t="s">
         <v>2</v>
       </c>
@@ -8955,7 +8921,7 @@
       </c>
       <c r="J214" s="8"/>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="21" t="s">
         <v>2</v>
       </c>
@@ -8986,7 +8952,7 @@
       </c>
       <c r="J215" s="8"/>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="21" t="s">
         <v>2</v>
       </c>
@@ -9017,7 +8983,7 @@
       </c>
       <c r="J216" s="8"/>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="21" t="s">
         <v>2</v>
       </c>
@@ -9048,7 +9014,7 @@
       </c>
       <c r="J217" s="8"/>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="21" t="s">
         <v>2</v>
       </c>
@@ -9077,7 +9043,7 @@
       </c>
       <c r="J218" s="8"/>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="21" t="s">
         <v>2</v>
       </c>
@@ -9108,7 +9074,7 @@
       </c>
       <c r="J219" s="8"/>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="21" t="s">
         <v>2</v>
       </c>
@@ -9139,7 +9105,7 @@
       </c>
       <c r="J220" s="8"/>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="21" t="s">
         <v>2</v>
       </c>
@@ -9170,7 +9136,7 @@
       </c>
       <c r="J221" s="8"/>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="21" t="s">
         <v>2</v>
       </c>
@@ -9199,7 +9165,7 @@
       </c>
       <c r="J222" s="8"/>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="21" t="s">
         <v>2</v>
       </c>
@@ -9230,7 +9196,7 @@
       </c>
       <c r="J223" s="8"/>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="21" t="s">
         <v>2</v>
       </c>
@@ -9261,7 +9227,7 @@
       </c>
       <c r="J224" s="8"/>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="21" t="s">
         <v>2</v>
       </c>
@@ -9292,7 +9258,7 @@
       </c>
       <c r="J225" s="8"/>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="21" t="s">
         <v>2</v>
       </c>
@@ -9323,7 +9289,7 @@
       </c>
       <c r="J226" s="8"/>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="21" t="s">
         <v>2</v>
       </c>
@@ -9352,7 +9318,7 @@
       </c>
       <c r="J227" s="8"/>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="21" t="s">
         <v>2</v>
       </c>
@@ -9383,7 +9349,7 @@
       </c>
       <c r="J228" s="8"/>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="21" t="s">
         <v>2</v>
       </c>
@@ -9414,7 +9380,7 @@
       </c>
       <c r="J229" s="8"/>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="21" t="s">
         <v>2</v>
       </c>
@@ -9445,7 +9411,7 @@
       </c>
       <c r="J230" s="8"/>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="21" t="s">
         <v>2</v>
       </c>
@@ -9476,7 +9442,7 @@
       </c>
       <c r="J231" s="8"/>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="21" t="s">
         <v>2</v>
       </c>
@@ -9502,7 +9468,7 @@
         <f t="shared" si="6"/>
         <v>NI-Industrial Communications for EtherCAT 15.0.0f3</v>
       </c>
-      <c r="I232" s="69" t="s">
+      <c r="I232" s="55" t="s">
         <v>448</v>
       </c>
       <c r="J232" s="8"/>
@@ -9536,7 +9502,7 @@
       <c r="I233" s="21"/>
       <c r="J233" s="8"/>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="21" t="s">
         <v>2</v>
       </c>
@@ -9567,7 +9533,7 @@
       </c>
       <c r="J234" s="8"/>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="21" t="s">
         <v>2</v>
       </c>
@@ -9598,7 +9564,7 @@
       </c>
       <c r="J235" s="8"/>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="21" t="s">
         <v>2</v>
       </c>
@@ -9629,7 +9595,7 @@
       </c>
       <c r="J236" s="8"/>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="21" t="s">
         <v>2</v>
       </c>
@@ -9660,7 +9626,7 @@
       </c>
       <c r="J237" s="8"/>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="21" t="s">
         <v>2</v>
       </c>
@@ -9691,7 +9657,7 @@
       </c>
       <c r="J238" s="8"/>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="21" t="s">
         <v>2</v>
       </c>
@@ -9722,7 +9688,7 @@
       </c>
       <c r="J239" s="8"/>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="21" t="s">
         <v>2</v>
       </c>
@@ -9753,7 +9719,7 @@
       </c>
       <c r="J240" s="8"/>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="21" t="s">
         <v>2</v>
       </c>
@@ -9782,7 +9748,7 @@
       <c r="I241" s="21"/>
       <c r="J241" s="8"/>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="21" t="s">
         <v>2</v>
       </c>
@@ -9813,7 +9779,7 @@
       </c>
       <c r="J242" s="8"/>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="21" t="s">
         <v>2</v>
       </c>
@@ -9844,7 +9810,7 @@
       </c>
       <c r="J243" s="8"/>
     </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="21" t="s">
         <v>2</v>
       </c>
@@ -9875,7 +9841,7 @@
       </c>
       <c r="J244" s="8"/>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="21" t="s">
         <v>2</v>
       </c>
@@ -9906,7 +9872,7 @@
       </c>
       <c r="J245" s="8"/>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="21" t="s">
         <v>2</v>
       </c>
@@ -9937,7 +9903,7 @@
       </c>
       <c r="J246" s="8"/>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="21" t="s">
         <v>2</v>
       </c>
@@ -9968,7 +9934,7 @@
       </c>
       <c r="J247" s="8"/>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="21" t="s">
         <v>2</v>
       </c>
@@ -9999,7 +9965,7 @@
       </c>
       <c r="J248" s="8"/>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="21" t="s">
         <v>2</v>
       </c>
@@ -10030,7 +9996,7 @@
       </c>
       <c r="J249" s="8"/>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="21" t="s">
         <v>2</v>
       </c>
@@ -10088,7 +10054,7 @@
       <c r="I251" s="21"/>
       <c r="J251" s="8"/>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="21" t="s">
         <v>2</v>
       </c>
@@ -10119,7 +10085,7 @@
       </c>
       <c r="J252" s="8"/>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="21" t="s">
         <v>2</v>
       </c>
@@ -10179,7 +10145,7 @@
       <c r="I254" s="21"/>
       <c r="J254" s="8"/>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="15" t="s">
         <v>3</v>
       </c>
@@ -10208,7 +10174,7 @@
       <c r="I255" s="15"/>
       <c r="J255" s="8"/>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="15" t="s">
         <v>3</v>
       </c>
@@ -10239,7 +10205,7 @@
       </c>
       <c r="J256" s="8"/>
     </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="15" t="s">
         <v>3</v>
       </c>
@@ -10268,7 +10234,7 @@
       <c r="I257" s="15"/>
       <c r="J257" s="8"/>
     </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="15" t="s">
         <v>3</v>
       </c>
@@ -10294,12 +10260,12 @@
         <f t="shared" si="6"/>
         <v>NI-Industrial Communications for EtherCAT 15.0</v>
       </c>
-      <c r="I258" s="69" t="s">
+      <c r="I258" s="55" t="s">
         <v>448</v>
       </c>
       <c r="J258" s="8"/>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="15" t="s">
         <v>3</v>
       </c>
@@ -10315,16 +10281,18 @@
         <v>15</v>
       </c>
       <c r="G259" s="16" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="H259" s="15" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">JKI VIPM </v>
       </c>
-      <c r="I259" s="15"/>
+      <c r="I259" s="15" t="s">
+        <v>459</v>
+      </c>
       <c r="J259" s="8"/>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="15" t="s">
         <v>3</v>
       </c>
@@ -10355,7 +10323,7 @@
       </c>
       <c r="J260" s="8"/>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="15" t="s">
         <v>3</v>
       </c>
@@ -10386,7 +10354,7 @@
       </c>
       <c r="J261" s="8"/>
     </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="15" t="s">
         <v>3</v>
       </c>
@@ -10417,7 +10385,7 @@
       </c>
       <c r="J262" s="8"/>
     </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="15" t="s">
         <v>3</v>
       </c>
@@ -10444,7 +10412,7 @@
       <c r="I263" s="15"/>
       <c r="J263" s="8"/>
     </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="15" t="s">
         <v>3</v>
       </c>
@@ -10473,7 +10441,7 @@
       <c r="I264" s="15"/>
       <c r="J264" s="8"/>
     </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="15" t="s">
         <v>3</v>
       </c>
@@ -10502,7 +10470,7 @@
       <c r="I265" s="15"/>
       <c r="J265" s="8"/>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="15" t="s">
         <v>3</v>
       </c>
@@ -10529,7 +10497,7 @@
       <c r="I266" s="15"/>
       <c r="J266" s="8"/>
     </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="15" t="s">
         <v>3</v>
       </c>
@@ -10558,7 +10526,7 @@
       <c r="I267" s="15"/>
       <c r="J267" s="8"/>
     </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="15" t="s">
         <v>3</v>
       </c>
@@ -10587,7 +10555,7 @@
       <c r="I268" s="15"/>
       <c r="J268" s="8"/>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="15" t="s">
         <v>3</v>
       </c>
@@ -10616,7 +10584,7 @@
       <c r="I269" s="15"/>
       <c r="J269" s="8"/>
     </row>
-    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="15" t="s">
         <v>3</v>
       </c>
@@ -10645,7 +10613,7 @@
       <c r="I270" s="15"/>
       <c r="J270" s="8"/>
     </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="15" t="s">
         <v>3</v>
       </c>
@@ -10674,7 +10642,7 @@
       <c r="I271" s="15"/>
       <c r="J271" s="8"/>
     </row>
-    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="15" t="s">
         <v>3</v>
       </c>
@@ -10703,7 +10671,7 @@
       <c r="I272" s="15"/>
       <c r="J272" s="8"/>
     </row>
-    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="15" t="s">
         <v>3</v>
       </c>
@@ -10730,7 +10698,7 @@
       <c r="I273" s="15"/>
       <c r="J273" s="8"/>
     </row>
-    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="15" t="s">
         <v>3</v>
       </c>
@@ -10759,7 +10727,7 @@
       <c r="I274" s="15"/>
       <c r="J274" s="8"/>
     </row>
-    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="15" t="s">
         <v>3</v>
       </c>
@@ -10788,7 +10756,7 @@
       <c r="I275" s="15"/>
       <c r="J275" s="8"/>
     </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="15" t="s">
         <v>3</v>
       </c>
@@ -10817,7 +10785,7 @@
       <c r="I276" s="15"/>
       <c r="J276" s="8"/>
     </row>
-    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="15" t="s">
         <v>3</v>
       </c>
@@ -10846,7 +10814,7 @@
       <c r="I277" s="15"/>
       <c r="J277" s="8"/>
     </row>
-    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="15" t="s">
         <v>3</v>
       </c>
@@ -10873,7 +10841,7 @@
       <c r="I278" s="15"/>
       <c r="J278" s="8"/>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="15" t="s">
         <v>3</v>
       </c>
@@ -10902,7 +10870,7 @@
       <c r="I279" s="15"/>
       <c r="J279" s="8"/>
     </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
         <v>3</v>
       </c>
@@ -10931,7 +10899,7 @@
       <c r="I280" s="15"/>
       <c r="J280" s="8"/>
     </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="15" t="s">
         <v>3</v>
       </c>
@@ -10960,7 +10928,7 @@
       <c r="I281" s="15"/>
       <c r="J281" s="8"/>
     </row>
-    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="15" t="s">
         <v>3</v>
       </c>
@@ -10989,7 +10957,7 @@
       <c r="I282" s="15"/>
       <c r="J282" s="8"/>
     </row>
-    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="15" t="s">
         <v>3</v>
       </c>
@@ -11018,7 +10986,7 @@
       <c r="I283" s="15"/>
       <c r="J283" s="8"/>
     </row>
-    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
         <v>3</v>
       </c>
@@ -11045,7 +11013,7 @@
       <c r="I284" s="15"/>
       <c r="J284" s="8"/>
     </row>
-    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="15" t="s">
         <v>3</v>
       </c>
@@ -11074,7 +11042,7 @@
       <c r="I285" s="15"/>
       <c r="J285" s="8"/>
     </row>
-    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="15" t="s">
         <v>3</v>
       </c>
@@ -11101,7 +11069,7 @@
       <c r="I286" s="15"/>
       <c r="J286" s="8"/>
     </row>
-    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="15" t="s">
         <v>3</v>
       </c>
@@ -11130,7 +11098,7 @@
       <c r="I287" s="15"/>
       <c r="J287" s="8"/>
     </row>
-    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="15" t="s">
         <v>3</v>
       </c>
@@ -11159,7 +11127,7 @@
       <c r="I288" s="15"/>
       <c r="J288" s="8"/>
     </row>
-    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="15" t="s">
         <v>3</v>
       </c>
@@ -11188,7 +11156,7 @@
       <c r="I289" s="15"/>
       <c r="J289" s="8"/>
     </row>
-    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="15" t="s">
         <v>3</v>
       </c>
@@ -11217,7 +11185,7 @@
       <c r="I290" s="15"/>
       <c r="J290" s="8"/>
     </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="15" t="s">
         <v>3</v>
       </c>
@@ -11246,7 +11214,7 @@
       <c r="I291" s="15"/>
       <c r="J291" s="8"/>
     </row>
-    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="15" t="s">
         <v>3</v>
       </c>
@@ -11275,7 +11243,7 @@
       <c r="I292" s="15"/>
       <c r="J292" s="8"/>
     </row>
-    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="15" t="s">
         <v>3</v>
       </c>
@@ -11306,7 +11274,7 @@
       </c>
       <c r="J293" s="8"/>
     </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="15" t="s">
         <v>3</v>
       </c>
@@ -11337,7 +11305,7 @@
       </c>
       <c r="J294" s="8"/>
     </row>
-    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="15" t="s">
         <v>3</v>
       </c>
@@ -11368,7 +11336,7 @@
       </c>
       <c r="J295" s="8"/>
     </row>
-    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="15" t="s">
         <v>3</v>
       </c>
@@ -11399,7 +11367,7 @@
       </c>
       <c r="J296" s="8"/>
     </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="15" t="s">
         <v>3</v>
       </c>
@@ -11430,7 +11398,7 @@
       </c>
       <c r="J297" s="8"/>
     </row>
-    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="15" t="s">
         <v>3</v>
       </c>
@@ -11461,7 +11429,7 @@
       </c>
       <c r="J298" s="8"/>
     </row>
-    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="15" t="s">
         <v>3</v>
       </c>
@@ -11492,7 +11460,7 @@
       </c>
       <c r="J299" s="8"/>
     </row>
-    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="15" t="s">
         <v>3</v>
       </c>
@@ -11523,7 +11491,7 @@
       </c>
       <c r="J300" s="8"/>
     </row>
-    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="15" t="s">
         <v>3</v>
       </c>
@@ -11554,7 +11522,7 @@
       </c>
       <c r="J301" s="8"/>
     </row>
-    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="15" t="s">
         <v>3</v>
       </c>
@@ -11585,7 +11553,7 @@
       </c>
       <c r="J302" s="8"/>
     </row>
-    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="15" t="s">
         <v>3</v>
       </c>
@@ -11616,7 +11584,7 @@
       </c>
       <c r="J303" s="8"/>
     </row>
-    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="15" t="s">
         <v>3</v>
       </c>
@@ -11647,7 +11615,7 @@
       </c>
       <c r="J304" s="8"/>
     </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="15" t="s">
         <v>3</v>
       </c>
@@ -11678,7 +11646,7 @@
       </c>
       <c r="J305" s="8"/>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="15" t="s">
         <v>3</v>
       </c>
@@ -11709,7 +11677,7 @@
       </c>
       <c r="J306" s="8"/>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="15" t="s">
         <v>3</v>
       </c>
@@ -11740,7 +11708,7 @@
       </c>
       <c r="J307" s="8"/>
     </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="15" t="s">
         <v>3</v>
       </c>
@@ -11771,7 +11739,7 @@
       </c>
       <c r="J308" s="8"/>
     </row>
-    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="15" t="s">
         <v>3</v>
       </c>
@@ -11802,7 +11770,7 @@
       </c>
       <c r="J309" s="8"/>
     </row>
-    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="15" t="s">
         <v>3</v>
       </c>
@@ -11833,7 +11801,7 @@
       </c>
       <c r="J310" s="8"/>
     </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="15" t="s">
         <v>3</v>
       </c>
@@ -11864,7 +11832,7 @@
       </c>
       <c r="J311" s="8"/>
     </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="15" t="s">
         <v>3</v>
       </c>
@@ -11895,7 +11863,7 @@
       </c>
       <c r="J312" s="8"/>
     </row>
-    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="15" t="s">
         <v>3</v>
       </c>
@@ -11926,7 +11894,7 @@
       </c>
       <c r="J313" s="8"/>
     </row>
-    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="15" t="s">
         <v>3</v>
       </c>
@@ -11957,7 +11925,7 @@
       </c>
       <c r="J314" s="8"/>
     </row>
-    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="15" t="s">
         <v>3</v>
       </c>
@@ -11988,7 +11956,7 @@
       </c>
       <c r="J315" s="8"/>
     </row>
-    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="15" t="s">
         <v>3</v>
       </c>
@@ -12019,7 +11987,7 @@
       </c>
       <c r="J316" s="8"/>
     </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="15" t="s">
         <v>3</v>
       </c>
@@ -12050,7 +12018,7 @@
       </c>
       <c r="J317" s="8"/>
     </row>
-    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="15" t="s">
         <v>3</v>
       </c>
@@ -12081,7 +12049,7 @@
       </c>
       <c r="J318" s="8"/>
     </row>
-    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="15" t="s">
         <v>3</v>
       </c>
@@ -12112,7 +12080,7 @@
       </c>
       <c r="J319" s="8"/>
     </row>
-    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="15" t="s">
         <v>3</v>
       </c>
@@ -12143,7 +12111,7 @@
       </c>
       <c r="J320" s="8"/>
     </row>
-    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="15" t="s">
         <v>3</v>
       </c>
@@ -12174,7 +12142,7 @@
       </c>
       <c r="J321" s="8"/>
     </row>
-    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="15" t="s">
         <v>3</v>
       </c>
@@ -12205,7 +12173,7 @@
       </c>
       <c r="J322" s="8"/>
     </row>
-    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="15" t="s">
         <v>3</v>
       </c>
@@ -12236,7 +12204,7 @@
       </c>
       <c r="J323" s="8"/>
     </row>
-    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="15" t="s">
         <v>3</v>
       </c>
@@ -12267,7 +12235,7 @@
       </c>
       <c r="J324" s="8"/>
     </row>
-    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="15" t="s">
         <v>3</v>
       </c>
@@ -12298,7 +12266,7 @@
       </c>
       <c r="J325" s="8"/>
     </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="15" t="s">
         <v>3</v>
       </c>
@@ -12329,7 +12297,7 @@
       </c>
       <c r="J326" s="8"/>
     </row>
-    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="15" t="s">
         <v>3</v>
       </c>
@@ -12360,7 +12328,7 @@
       </c>
       <c r="J327" s="8"/>
     </row>
-    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="15" t="s">
         <v>3</v>
       </c>
@@ -12391,7 +12359,7 @@
       </c>
       <c r="J328" s="8"/>
     </row>
-    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="15" t="s">
         <v>3</v>
       </c>
@@ -12422,7 +12390,7 @@
       </c>
       <c r="J329" s="8"/>
     </row>
-    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="15" t="s">
         <v>3</v>
       </c>
@@ -12453,7 +12421,7 @@
       </c>
       <c r="J330" s="8"/>
     </row>
-    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="15" t="s">
         <v>3</v>
       </c>
@@ -12484,7 +12452,7 @@
       </c>
       <c r="J331" s="8"/>
     </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="15" t="s">
         <v>3</v>
       </c>
@@ -12515,7 +12483,7 @@
       </c>
       <c r="J332" s="8"/>
     </row>
-    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="15" t="s">
         <v>3</v>
       </c>
@@ -12546,7 +12514,7 @@
       </c>
       <c r="J333" s="8"/>
     </row>
-    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="15" t="s">
         <v>3</v>
       </c>
@@ -12577,7 +12545,7 @@
       </c>
       <c r="J334" s="8"/>
     </row>
-    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="15" t="s">
         <v>3</v>
       </c>
@@ -12608,7 +12576,7 @@
       </c>
       <c r="J335" s="8"/>
     </row>
-    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="15" t="s">
         <v>3</v>
       </c>
@@ -12639,7 +12607,7 @@
       </c>
       <c r="J336" s="8"/>
     </row>
-    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="15" t="s">
         <v>3</v>
       </c>
@@ -12670,7 +12638,7 @@
       </c>
       <c r="J337" s="8"/>
     </row>
-    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="15" t="s">
         <v>3</v>
       </c>
@@ -12701,7 +12669,7 @@
       </c>
       <c r="J338" s="8"/>
     </row>
-    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="15" t="s">
         <v>3</v>
       </c>
@@ -12732,7 +12700,7 @@
       </c>
       <c r="J339" s="8"/>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="15" t="s">
         <v>3</v>
       </c>
@@ -12763,7 +12731,7 @@
       </c>
       <c r="J340" s="8"/>
     </row>
-    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="15" t="s">
         <v>3</v>
       </c>
@@ -12794,7 +12762,7 @@
       </c>
       <c r="J341" s="8"/>
     </row>
-    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="15" t="s">
         <v>3</v>
       </c>
@@ -12825,7 +12793,7 @@
       </c>
       <c r="J342" s="8"/>
     </row>
-    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="15" t="s">
         <v>3</v>
       </c>
@@ -12856,7 +12824,7 @@
       </c>
       <c r="J343" s="8"/>
     </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="15" t="s">
         <v>3</v>
       </c>
@@ -12887,7 +12855,7 @@
       </c>
       <c r="J344" s="8"/>
     </row>
-    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="15" t="s">
         <v>3</v>
       </c>
@@ -12918,7 +12886,7 @@
       </c>
       <c r="J345" s="8"/>
     </row>
-    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="15" t="s">
         <v>3</v>
       </c>
@@ -12949,7 +12917,7 @@
       </c>
       <c r="J346" s="8"/>
     </row>
-    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="15" t="s">
         <v>3</v>
       </c>
@@ -12980,7 +12948,7 @@
       </c>
       <c r="J347" s="8"/>
     </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="15" t="s">
         <v>3</v>
       </c>
@@ -13011,7 +12979,7 @@
       </c>
       <c r="J348" s="8"/>
     </row>
-    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="15" t="s">
         <v>3</v>
       </c>
@@ -13042,7 +13010,7 @@
       </c>
       <c r="J349" s="8"/>
     </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="15" t="s">
         <v>3</v>
       </c>
@@ -13073,7 +13041,7 @@
       </c>
       <c r="J350" s="8"/>
     </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="15" t="s">
         <v>3</v>
       </c>
@@ -13104,7 +13072,7 @@
       </c>
       <c r="J351" s="8"/>
     </row>
-    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="15" t="s">
         <v>3</v>
       </c>
@@ -13135,7 +13103,7 @@
       </c>
       <c r="J352" s="8"/>
     </row>
-    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="15" t="s">
         <v>3</v>
       </c>
@@ -13166,7 +13134,7 @@
       </c>
       <c r="J353" s="8"/>
     </row>
-    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="15" t="s">
         <v>3</v>
       </c>
@@ -13197,7 +13165,7 @@
       </c>
       <c r="J354" s="8"/>
     </row>
-    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="15" t="s">
         <v>3</v>
       </c>
@@ -13228,7 +13196,7 @@
       </c>
       <c r="J355" s="8"/>
     </row>
-    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="15" t="s">
         <v>3</v>
       </c>
@@ -13259,7 +13227,7 @@
       </c>
       <c r="J356" s="8"/>
     </row>
-    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="15" t="s">
         <v>3</v>
       </c>
@@ -13290,7 +13258,7 @@
       </c>
       <c r="J357" s="8"/>
     </row>
-    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="15" t="s">
         <v>3</v>
       </c>
@@ -13321,7 +13289,7 @@
       </c>
       <c r="J358" s="8"/>
     </row>
-    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="15" t="s">
         <v>3</v>
       </c>
@@ -13352,7 +13320,7 @@
       </c>
       <c r="J359" s="8"/>
     </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="15" t="s">
         <v>3</v>
       </c>
@@ -13383,7 +13351,7 @@
       </c>
       <c r="J360" s="8"/>
     </row>
-    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="15" t="s">
         <v>3</v>
       </c>
@@ -13414,7 +13382,7 @@
       </c>
       <c r="J361" s="8"/>
     </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="15" t="s">
         <v>3</v>
       </c>
@@ -13445,7 +13413,7 @@
       </c>
       <c r="J362" s="8"/>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="15" t="s">
         <v>3</v>
       </c>
@@ -13476,7 +13444,7 @@
       </c>
       <c r="J363" s="8"/>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="15" t="s">
         <v>3</v>
       </c>
@@ -13507,7 +13475,7 @@
       </c>
       <c r="J364" s="8"/>
     </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="15" t="s">
         <v>3</v>
       </c>
@@ -13538,7 +13506,7 @@
       </c>
       <c r="J365" s="8"/>
     </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="15" t="s">
         <v>3</v>
       </c>
@@ -13569,7 +13537,7 @@
       </c>
       <c r="J366" s="8"/>
     </row>
-    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="15" t="s">
         <v>3</v>
       </c>
@@ -13600,7 +13568,7 @@
       </c>
       <c r="J367" s="8"/>
     </row>
-    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="15" t="s">
         <v>3</v>
       </c>
@@ -13631,7 +13599,7 @@
       </c>
       <c r="J368" s="8"/>
     </row>
-    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="15" t="s">
         <v>3</v>
       </c>
@@ -13662,7 +13630,7 @@
       </c>
       <c r="J369" s="8"/>
     </row>
-    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="15" t="s">
         <v>3</v>
       </c>
@@ -13693,7 +13661,7 @@
       </c>
       <c r="J370" s="8"/>
     </row>
-    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="15" t="s">
         <v>3</v>
       </c>
@@ -13724,7 +13692,7 @@
       </c>
       <c r="J371" s="8"/>
     </row>
-    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="15" t="s">
         <v>3</v>
       </c>
@@ -13755,7 +13723,7 @@
       </c>
       <c r="J372" s="8"/>
     </row>
-    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="15" t="s">
         <v>3</v>
       </c>
@@ -13786,7 +13754,7 @@
       </c>
       <c r="J373" s="8"/>
     </row>
-    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="15" t="s">
         <v>3</v>
       </c>
@@ -13817,7 +13785,7 @@
       </c>
       <c r="J374" s="8"/>
     </row>
-    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="15" t="s">
         <v>3</v>
       </c>
@@ -13848,7 +13816,7 @@
       </c>
       <c r="J375" s="8"/>
     </row>
-    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="15" t="s">
         <v>3</v>
       </c>
@@ -13879,7 +13847,7 @@
       </c>
       <c r="J376" s="8"/>
     </row>
-    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="15" t="s">
         <v>3</v>
       </c>
@@ -13910,7 +13878,7 @@
       </c>
       <c r="J377" s="8"/>
     </row>
-    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="15" t="s">
         <v>3</v>
       </c>
@@ -13941,7 +13909,7 @@
       </c>
       <c r="J378" s="8"/>
     </row>
-    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="15" t="s">
         <v>3</v>
       </c>
@@ -13970,7 +13938,7 @@
       <c r="I379" s="15"/>
       <c r="J379" s="8"/>
     </row>
-    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="15" t="s">
         <v>3</v>
       </c>
@@ -13999,7 +13967,7 @@
       <c r="I380" s="15"/>
       <c r="J380" s="8"/>
     </row>
-    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="15" t="s">
         <v>3</v>
       </c>
@@ -14086,7 +14054,7 @@
       <c r="I383" s="15"/>
       <c r="J383" s="8"/>
     </row>
-    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="15" t="s">
         <v>3</v>
       </c>
@@ -14115,7 +14083,7 @@
       <c r="I384" s="15"/>
       <c r="J384" s="8"/>
     </row>
-    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="15" t="s">
         <v>3</v>
       </c>
@@ -14144,7 +14112,7 @@
       <c r="I385" s="15"/>
       <c r="J385" s="8"/>
     </row>
-    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="15" t="s">
         <v>3</v>
       </c>
@@ -14260,7 +14228,7 @@
       <c r="I389" s="15"/>
       <c r="J389" s="8"/>
     </row>
-    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="15" t="s">
         <v>3</v>
       </c>
@@ -14318,7 +14286,7 @@
       <c r="I391" s="15"/>
       <c r="J391" s="8"/>
     </row>
-    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="15" t="s">
         <v>3</v>
       </c>
@@ -14347,7 +14315,7 @@
       <c r="I392" s="15"/>
       <c r="J392" s="8"/>
     </row>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="15" t="s">
         <v>3</v>
       </c>
@@ -14376,7 +14344,7 @@
       <c r="I393" s="15"/>
       <c r="J393" s="8"/>
     </row>
-    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="15" t="s">
         <v>3</v>
       </c>
@@ -14492,7 +14460,7 @@
       <c r="I397" s="15"/>
       <c r="J397" s="8"/>
     </row>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="15" t="s">
         <v>3</v>
       </c>
@@ -14518,12 +14486,12 @@
         <f t="shared" si="9"/>
         <v>NI-Industrial Communications for EtherCAT 15.0.0f3</v>
       </c>
-      <c r="I398" s="69" t="s">
+      <c r="I398" s="55" t="s">
         <v>448</v>
       </c>
       <c r="J398" s="8"/>
     </row>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="15" t="s">
         <v>3</v>
       </c>
@@ -14554,7 +14522,7 @@
       </c>
       <c r="J399" s="8"/>
     </row>
-    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="15" t="s">
         <v>3</v>
       </c>
@@ -14583,7 +14551,7 @@
       <c r="I400" s="15"/>
       <c r="J400" s="8"/>
     </row>
-    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="15" t="s">
         <v>3</v>
       </c>
@@ -14612,7 +14580,7 @@
       <c r="I401" s="15"/>
       <c r="J401" s="8"/>
     </row>
-    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="15" t="s">
         <v>3</v>
       </c>
@@ -14643,7 +14611,7 @@
       </c>
       <c r="J402" s="8"/>
     </row>
-    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="15" t="s">
         <v>3</v>
       </c>
@@ -14701,7 +14669,7 @@
       <c r="I404" s="15"/>
       <c r="J404" s="8"/>
     </row>
-    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="15" t="s">
         <v>3</v>
       </c>
@@ -14728,7 +14696,7 @@
       <c r="I405" s="15"/>
       <c r="J405" s="8"/>
     </row>
-    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="15" t="s">
         <v>3</v>
       </c>
@@ -14755,7 +14723,7 @@
       <c r="I406" s="15"/>
       <c r="J406" s="8"/>
     </row>
-    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="15" t="s">
         <v>3</v>
       </c>
@@ -14784,7 +14752,7 @@
       <c r="I407" s="15"/>
       <c r="J407" s="8"/>
     </row>
-    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="15" t="s">
         <v>3</v>
       </c>
@@ -14811,7 +14779,7 @@
       <c r="I408" s="15"/>
       <c r="J408" s="8"/>
     </row>
-    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="15" t="s">
         <v>3</v>
       </c>
@@ -14838,7 +14806,7 @@
       <c r="I409" s="15"/>
       <c r="J409" s="8"/>
     </row>
-    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="15" t="s">
         <v>3</v>
       </c>
@@ -14865,7 +14833,7 @@
       <c r="I410" s="15"/>
       <c r="J410" s="8"/>
     </row>
-    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="15" t="s">
         <v>3</v>
       </c>
@@ -14894,7 +14862,7 @@
       <c r="I411" s="15"/>
       <c r="J411" s="8"/>
     </row>
-    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="15" t="s">
         <v>3</v>
       </c>
@@ -14923,7 +14891,7 @@
       <c r="I412" s="15"/>
       <c r="J412" s="8"/>
     </row>
-    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="15" t="s">
         <v>3</v>
       </c>
@@ -14950,7 +14918,7 @@
       <c r="I413" s="15"/>
       <c r="J413" s="8"/>
     </row>
-    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="15" t="s">
         <v>3</v>
       </c>
@@ -14979,7 +14947,7 @@
       </c>
       <c r="J414" s="8"/>
     </row>
-    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="15" t="s">
         <v>3</v>
       </c>
@@ -15008,7 +14976,7 @@
       </c>
       <c r="J415" s="8"/>
     </row>
-    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="15" t="s">
         <v>3</v>
       </c>
@@ -15039,7 +15007,7 @@
       </c>
       <c r="J416" s="8"/>
     </row>
-    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="15" t="s">
         <v>3</v>
       </c>
@@ -15070,7 +15038,7 @@
       </c>
       <c r="J417" s="8"/>
     </row>
-    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="15" t="s">
         <v>3</v>
       </c>
@@ -15099,7 +15067,7 @@
       <c r="I418" s="15"/>
       <c r="J418" s="8"/>
     </row>
-    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="15" t="s">
         <v>3</v>
       </c>
@@ -15128,7 +15096,7 @@
       <c r="I419" s="15"/>
       <c r="J419" s="8"/>
     </row>
-    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="15" t="s">
         <v>3</v>
       </c>
@@ -15157,7 +15125,7 @@
       <c r="I420" s="15"/>
       <c r="J420" s="8"/>
     </row>
-    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="15" t="s">
         <v>3</v>
       </c>
@@ -15186,7 +15154,7 @@
       <c r="I421" s="15"/>
       <c r="J421" s="8"/>
     </row>
-    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="15" t="s">
         <v>3</v>
       </c>
@@ -15215,7 +15183,7 @@
       <c r="I422" s="15"/>
       <c r="J422" s="8"/>
     </row>
-    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="15" t="s">
         <v>3</v>
       </c>
@@ -15273,7 +15241,7 @@
       <c r="I424" s="15"/>
       <c r="J424" s="8"/>
     </row>
-    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="15" t="s">
         <v>3</v>
       </c>
@@ -15302,7 +15270,7 @@
       <c r="I425" s="15"/>
       <c r="J425" s="8"/>
     </row>
-    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="15" t="s">
         <v>3</v>
       </c>
@@ -15331,7 +15299,7 @@
       <c r="I426" s="15"/>
       <c r="J426" s="8"/>
     </row>
-    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="15" t="s">
         <v>3</v>
       </c>
@@ -15360,7 +15328,7 @@
       <c r="I427" s="15"/>
       <c r="J427" s="8"/>
     </row>
-    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="15" t="s">
         <v>3</v>
       </c>
@@ -15389,7 +15357,7 @@
       <c r="I428" s="15"/>
       <c r="J428" s="8"/>
     </row>
-    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="15" t="s">
         <v>3</v>
       </c>
@@ -15418,7 +15386,7 @@
       <c r="I429" s="15"/>
       <c r="J429" s="8"/>
     </row>
-    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="15" t="s">
         <v>3</v>
       </c>
@@ -15447,7 +15415,7 @@
       <c r="I430" s="15"/>
       <c r="J430" s="8"/>
     </row>
-    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="15" t="s">
         <v>3</v>
       </c>
@@ -15505,7 +15473,7 @@
       <c r="I432" s="15"/>
       <c r="J432" s="8"/>
     </row>
-    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="15" t="s">
         <v>3</v>
       </c>
@@ -15536,7 +15504,7 @@
       </c>
       <c r="J433" s="8"/>
     </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="15" t="s">
         <v>3</v>
       </c>
@@ -15565,7 +15533,7 @@
       <c r="I434" s="15"/>
       <c r="J434" s="8"/>
     </row>
-    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="15" t="s">
         <v>3</v>
       </c>
@@ -15652,7 +15620,7 @@
       <c r="I437" s="15"/>
       <c r="J437" s="8"/>
     </row>
-    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="15" t="s">
         <v>3</v>
       </c>
@@ -15683,7 +15651,7 @@
       </c>
       <c r="J438" s="8"/>
     </row>
-    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="15" t="s">
         <v>3</v>
       </c>
@@ -15801,7 +15769,7 @@
       <c r="I442" s="15"/>
       <c r="J442" s="8"/>
     </row>
-    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="15" t="s">
         <v>3</v>
       </c>
@@ -15830,7 +15798,7 @@
       <c r="I443" s="15"/>
       <c r="J443" s="8"/>
     </row>
-    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="15" t="s">
         <v>3</v>
       </c>
@@ -15859,7 +15827,7 @@
       <c r="I444" s="15"/>
       <c r="J444" s="8"/>
     </row>
-    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="15" t="s">
         <v>3</v>
       </c>
@@ -15888,7 +15856,7 @@
       <c r="I445" s="15"/>
       <c r="J445" s="8"/>
     </row>
-    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" s="15" t="s">
         <v>3</v>
       </c>
@@ -15917,7 +15885,7 @@
       <c r="I446" s="15"/>
       <c r="J446" s="8"/>
     </row>
-    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" s="15" t="s">
         <v>3</v>
       </c>
@@ -15948,7 +15916,7 @@
       </c>
       <c r="J447" s="8"/>
     </row>
-    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="15" t="s">
         <v>3</v>
       </c>
@@ -15979,7 +15947,7 @@
       </c>
       <c r="J448" s="8"/>
     </row>
-    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" s="15" t="s">
         <v>3</v>
       </c>
@@ -16008,7 +15976,7 @@
       <c r="I449" s="15"/>
       <c r="J449" s="8"/>
     </row>
-    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" s="15" t="s">
         <v>3</v>
       </c>
@@ -16039,7 +16007,7 @@
       </c>
       <c r="J450" s="8"/>
     </row>
-    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" s="15" t="s">
         <v>3</v>
       </c>
@@ -16068,7 +16036,7 @@
       <c r="I451" s="15"/>
       <c r="J451" s="8"/>
     </row>
-    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" s="15" t="s">
         <v>3</v>
       </c>
@@ -16099,7 +16067,7 @@
       </c>
       <c r="J452" s="8"/>
     </row>
-    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" s="15" t="s">
         <v>3</v>
       </c>
@@ -16128,7 +16096,7 @@
       <c r="I453" s="15"/>
       <c r="J453" s="8"/>
     </row>
-    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" s="15" t="s">
         <v>3</v>
       </c>
@@ -16159,7 +16127,7 @@
       </c>
       <c r="J454" s="8"/>
     </row>
-    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" s="15" t="s">
         <v>3</v>
       </c>
@@ -16190,7 +16158,7 @@
       </c>
       <c r="J455" s="8"/>
     </row>
-    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" s="15" t="s">
         <v>3</v>
       </c>
@@ -16219,7 +16187,7 @@
       <c r="I456" s="15"/>
       <c r="J456" s="8"/>
     </row>
-    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" s="15" t="s">
         <v>3</v>
       </c>
@@ -16248,7 +16216,7 @@
       <c r="I457" s="15"/>
       <c r="J457" s="8"/>
     </row>
-    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" s="15" t="s">
         <v>3</v>
       </c>
@@ -16306,7 +16274,7 @@
       <c r="I459" s="15"/>
       <c r="J459" s="8"/>
     </row>
-    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" s="23" t="s">
         <v>102</v>
       </c>
@@ -16335,7 +16303,7 @@
       <c r="I460" s="23"/>
       <c r="J460" s="8"/>
     </row>
-    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" s="23" t="s">
         <v>102</v>
       </c>
@@ -16366,7 +16334,7 @@
       </c>
       <c r="J461" s="8"/>
     </row>
-    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" s="23" t="s">
         <v>102</v>
       </c>
@@ -16397,7 +16365,7 @@
       </c>
       <c r="J462" s="8"/>
     </row>
-    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" s="23" t="s">
         <v>102</v>
       </c>
@@ -16428,7 +16396,7 @@
       </c>
       <c r="J463" s="8"/>
     </row>
-    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" s="23" t="s">
         <v>102</v>
       </c>
@@ -16457,7 +16425,7 @@
       </c>
       <c r="J464" s="8"/>
     </row>
-    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" s="23" t="s">
         <v>102</v>
       </c>
@@ -16488,7 +16456,7 @@
       </c>
       <c r="J465" s="8"/>
     </row>
-    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" s="23" t="s">
         <v>102</v>
       </c>
@@ -16519,7 +16487,7 @@
       </c>
       <c r="J466" s="8"/>
     </row>
-    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" s="23" t="s">
         <v>102</v>
       </c>
@@ -16550,7 +16518,7 @@
       </c>
       <c r="J467" s="8"/>
     </row>
-    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" s="23" t="s">
         <v>102</v>
       </c>
@@ -16581,7 +16549,7 @@
       </c>
       <c r="J468" s="8"/>
     </row>
-    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" s="23" t="s">
         <v>102</v>
       </c>
@@ -16612,7 +16580,7 @@
       </c>
       <c r="J469" s="8"/>
     </row>
-    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" s="23" t="s">
         <v>102</v>
       </c>
@@ -16643,7 +16611,7 @@
       </c>
       <c r="J470" s="8"/>
     </row>
-    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" s="23" t="s">
         <v>102</v>
       </c>
@@ -16674,7 +16642,7 @@
       </c>
       <c r="J471" s="8"/>
     </row>
-    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" s="23" t="s">
         <v>102</v>
       </c>
@@ -16705,7 +16673,7 @@
       </c>
       <c r="J472" s="8"/>
     </row>
-    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" s="23" t="s">
         <v>102</v>
       </c>
@@ -16736,7 +16704,7 @@
       </c>
       <c r="J473" s="8"/>
     </row>
-    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" s="23" t="s">
         <v>102</v>
       </c>
@@ -16767,7 +16735,7 @@
       </c>
       <c r="J474" s="8"/>
     </row>
-    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" s="23" t="s">
         <v>102</v>
       </c>
@@ -16796,7 +16764,7 @@
       </c>
       <c r="J475" s="8"/>
     </row>
-    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" s="23" t="s">
         <v>102</v>
       </c>
@@ -16827,7 +16795,7 @@
       </c>
       <c r="J476" s="8"/>
     </row>
-    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" s="23" t="s">
         <v>102</v>
       </c>
@@ -16858,7 +16826,7 @@
       </c>
       <c r="J477" s="8"/>
     </row>
-    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478" s="23" t="s">
         <v>102</v>
       </c>
@@ -16889,7 +16857,7 @@
       </c>
       <c r="J478" s="8"/>
     </row>
-    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" s="23" t="s">
         <v>102</v>
       </c>
@@ -16920,7 +16888,7 @@
       </c>
       <c r="J479" s="8"/>
     </row>
-    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480" s="23" t="s">
         <v>102</v>
       </c>
@@ -16949,7 +16917,7 @@
       </c>
       <c r="J480" s="8"/>
     </row>
-    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" s="23" t="s">
         <v>102</v>
       </c>
@@ -16980,7 +16948,7 @@
       </c>
       <c r="J481" s="8"/>
     </row>
-    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" s="23" t="s">
         <v>102</v>
       </c>
@@ -17011,7 +16979,7 @@
       </c>
       <c r="J482" s="8"/>
     </row>
-    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" s="23" t="s">
         <v>102</v>
       </c>
@@ -17042,7 +17010,7 @@
       </c>
       <c r="J483" s="8"/>
     </row>
-    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" s="23" t="s">
         <v>102</v>
       </c>
@@ -17073,7 +17041,7 @@
       </c>
       <c r="J484" s="8"/>
     </row>
-    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485" s="23" t="s">
         <v>102</v>
       </c>
@@ -17104,7 +17072,7 @@
       </c>
       <c r="J485" s="8"/>
     </row>
-    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" s="23" t="s">
         <v>102</v>
       </c>
@@ -17135,7 +17103,7 @@
       </c>
       <c r="J486" s="8"/>
     </row>
-    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" s="23" t="s">
         <v>102</v>
       </c>
@@ -17166,7 +17134,7 @@
       </c>
       <c r="J487" s="8"/>
     </row>
-    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" s="23" t="s">
         <v>102</v>
       </c>
@@ -17195,7 +17163,7 @@
       <c r="I488" s="23"/>
       <c r="J488" s="8"/>
     </row>
-    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" s="23" t="s">
         <v>102</v>
       </c>
@@ -17226,7 +17194,7 @@
       </c>
       <c r="J489" s="8"/>
     </row>
-    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" s="23" t="s">
         <v>102</v>
       </c>
@@ -17257,7 +17225,7 @@
       </c>
       <c r="J490" s="8"/>
     </row>
-    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" s="23" t="s">
         <v>102</v>
       </c>
@@ -17288,7 +17256,7 @@
       </c>
       <c r="J491" s="8"/>
     </row>
-    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" s="23" t="s">
         <v>102</v>
       </c>
@@ -17319,7 +17287,7 @@
       </c>
       <c r="J492" s="8"/>
     </row>
-    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" s="23" t="s">
         <v>102</v>
       </c>
@@ -17350,7 +17318,7 @@
       </c>
       <c r="J493" s="8"/>
     </row>
-    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" s="23" t="s">
         <v>102</v>
       </c>
@@ -17381,7 +17349,7 @@
       </c>
       <c r="J494" s="8"/>
     </row>
-    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" s="23" t="s">
         <v>102</v>
       </c>
@@ -17412,7 +17380,7 @@
       </c>
       <c r="J495" s="8"/>
     </row>
-    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" s="23" t="s">
         <v>102</v>
       </c>
@@ -17443,7 +17411,7 @@
       </c>
       <c r="J496" s="8"/>
     </row>
-    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" s="23" t="s">
         <v>102</v>
       </c>
@@ -17474,7 +17442,7 @@
       </c>
       <c r="J497" s="8"/>
     </row>
-    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" s="23" t="s">
         <v>102</v>
       </c>
@@ -17505,7 +17473,7 @@
       </c>
       <c r="J498" s="8"/>
     </row>
-    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499" s="23" t="s">
         <v>102</v>
       </c>
@@ -17536,7 +17504,7 @@
       </c>
       <c r="J499" s="8"/>
     </row>
-    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500" s="23" t="s">
         <v>102</v>
       </c>
@@ -17567,7 +17535,7 @@
       </c>
       <c r="J500" s="8"/>
     </row>
-    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" s="23" t="s">
         <v>102</v>
       </c>
@@ -17598,7 +17566,7 @@
       </c>
       <c r="J501" s="8"/>
     </row>
-    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" s="23" t="s">
         <v>102</v>
       </c>
@@ -17629,7 +17597,7 @@
       </c>
       <c r="J502" s="8"/>
     </row>
-    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" s="23" t="s">
         <v>102</v>
       </c>
@@ -17660,7 +17628,7 @@
       </c>
       <c r="J503" s="8"/>
     </row>
-    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" s="23" t="s">
         <v>102</v>
       </c>
@@ -17691,7 +17659,7 @@
       </c>
       <c r="J504" s="8"/>
     </row>
-    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" s="23" t="s">
         <v>102</v>
       </c>
@@ -17720,7 +17688,7 @@
       </c>
       <c r="J505" s="8"/>
     </row>
-    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" s="23" t="s">
         <v>102</v>
       </c>
@@ -17749,7 +17717,7 @@
       </c>
       <c r="J506" s="8"/>
     </row>
-    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" s="23" t="s">
         <v>102</v>
       </c>
@@ -17780,7 +17748,7 @@
       </c>
       <c r="J507" s="8"/>
     </row>
-    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" s="23" t="s">
         <v>102</v>
       </c>
@@ -17811,7 +17779,7 @@
       </c>
       <c r="J508" s="8"/>
     </row>
-    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" s="23" t="s">
         <v>102</v>
       </c>
@@ -17842,7 +17810,7 @@
       </c>
       <c r="J509" s="8"/>
     </row>
-    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" s="23" t="s">
         <v>102</v>
       </c>
@@ -17871,7 +17839,7 @@
       </c>
       <c r="J510" s="8"/>
     </row>
-    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511" s="23" t="s">
         <v>102</v>
       </c>
@@ -17902,7 +17870,7 @@
       </c>
       <c r="J511" s="8"/>
     </row>
-    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512" s="23" t="s">
         <v>102</v>
       </c>
@@ -17933,7 +17901,7 @@
       </c>
       <c r="J512" s="8"/>
     </row>
-    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513" s="23" t="s">
         <v>102</v>
       </c>
@@ -17964,7 +17932,7 @@
       </c>
       <c r="J513" s="8"/>
     </row>
-    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514" s="23" t="s">
         <v>102</v>
       </c>
@@ -17995,7 +17963,7 @@
       </c>
       <c r="J514" s="8"/>
     </row>
-    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" s="23" t="s">
         <v>102</v>
       </c>
@@ -18024,7 +17992,7 @@
       </c>
       <c r="J515" s="8"/>
     </row>
-    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516" s="23" t="s">
         <v>102</v>
       </c>
@@ -18055,7 +18023,7 @@
       </c>
       <c r="J516" s="8"/>
     </row>
-    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517" s="23" t="s">
         <v>102</v>
       </c>
@@ -18086,7 +18054,7 @@
       </c>
       <c r="J517" s="8"/>
     </row>
-    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518" s="23" t="s">
         <v>102</v>
       </c>
@@ -18117,7 +18085,7 @@
       </c>
       <c r="J518" s="8"/>
     </row>
-    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519" s="23" t="s">
         <v>102</v>
       </c>
@@ -18148,7 +18116,7 @@
       </c>
       <c r="J519" s="8"/>
     </row>
-    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A520" s="23" t="s">
         <v>102</v>
       </c>
@@ -18179,7 +18147,7 @@
       </c>
       <c r="J520" s="8"/>
     </row>
-    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A521" s="23" t="s">
         <v>102</v>
       </c>
@@ -18210,7 +18178,7 @@
       </c>
       <c r="J521" s="8"/>
     </row>
-    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A522" s="23" t="s">
         <v>102</v>
       </c>
@@ -18241,7 +18209,7 @@
       </c>
       <c r="J522" s="8"/>
     </row>
-    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A523" s="23" t="s">
         <v>102</v>
       </c>
@@ -18272,7 +18240,7 @@
       </c>
       <c r="J523" s="8"/>
     </row>
-    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" s="23" t="s">
         <v>102</v>
       </c>
@@ -18303,7 +18271,7 @@
       </c>
       <c r="J524" s="8"/>
     </row>
-    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A525" s="23" t="s">
         <v>102</v>
       </c>
@@ -18334,7 +18302,7 @@
       </c>
       <c r="J525" s="8"/>
     </row>
-    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A526" s="23" t="s">
         <v>102</v>
       </c>
@@ -18365,7 +18333,7 @@
       </c>
       <c r="J526" s="8"/>
     </row>
-    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527" s="23" t="s">
         <v>102</v>
       </c>
@@ -18396,7 +18364,7 @@
       </c>
       <c r="J527" s="8"/>
     </row>
-    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A528" s="23" t="s">
         <v>102</v>
       </c>
@@ -18427,7 +18395,7 @@
       </c>
       <c r="J528" s="8"/>
     </row>
-    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A529" s="23" t="s">
         <v>102</v>
       </c>
@@ -18458,7 +18426,7 @@
       </c>
       <c r="J529" s="8"/>
     </row>
-    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A530" s="23" t="s">
         <v>102</v>
       </c>
@@ -18489,7 +18457,7 @@
       </c>
       <c r="J530" s="8"/>
     </row>
-    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A531" s="23" t="s">
         <v>102</v>
       </c>
@@ -18520,7 +18488,7 @@
       </c>
       <c r="J531" s="8"/>
     </row>
-    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A532" s="23" t="s">
         <v>102</v>
       </c>
@@ -18551,7 +18519,7 @@
       </c>
       <c r="J532" s="8"/>
     </row>
-    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A533" s="23" t="s">
         <v>102</v>
       </c>
@@ -18582,7 +18550,7 @@
       </c>
       <c r="J533" s="8"/>
     </row>
-    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A534" s="23" t="s">
         <v>102</v>
       </c>
@@ -18613,7 +18581,7 @@
       </c>
       <c r="J534" s="8"/>
     </row>
-    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" s="23" t="s">
         <v>102</v>
       </c>
@@ -18644,7 +18612,7 @@
       </c>
       <c r="J535" s="8"/>
     </row>
-    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536" s="23" t="s">
         <v>102</v>
       </c>
@@ -18675,7 +18643,7 @@
       </c>
       <c r="J536" s="8"/>
     </row>
-    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537" s="23" t="s">
         <v>102</v>
       </c>
@@ -18706,7 +18674,7 @@
       </c>
       <c r="J537" s="8"/>
     </row>
-    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A538" s="23" t="s">
         <v>102</v>
       </c>
@@ -18737,7 +18705,7 @@
       </c>
       <c r="J538" s="8"/>
     </row>
-    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A539" s="23" t="s">
         <v>102</v>
       </c>
@@ -18768,7 +18736,7 @@
       </c>
       <c r="J539" s="8"/>
     </row>
-    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A540" s="23" t="s">
         <v>102</v>
       </c>
@@ -18799,7 +18767,7 @@
       </c>
       <c r="J540" s="8"/>
     </row>
-    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A541" s="23" t="s">
         <v>102</v>
       </c>
@@ -18830,7 +18798,7 @@
       </c>
       <c r="J541" s="8"/>
     </row>
-    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A542" s="23" t="s">
         <v>102</v>
       </c>
@@ -18861,7 +18829,7 @@
       </c>
       <c r="J542" s="8"/>
     </row>
-    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543" s="23" t="s">
         <v>102</v>
       </c>
@@ -18892,7 +18860,7 @@
       </c>
       <c r="J543" s="8"/>
     </row>
-    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A544" s="23" t="s">
         <v>102</v>
       </c>
@@ -18923,7 +18891,7 @@
       </c>
       <c r="J544" s="8"/>
     </row>
-    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A545" s="23" t="s">
         <v>102</v>
       </c>
@@ -18954,7 +18922,7 @@
       </c>
       <c r="J545" s="8"/>
     </row>
-    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546" s="23" t="s">
         <v>102</v>
       </c>
@@ -18985,7 +18953,7 @@
       </c>
       <c r="J546" s="8"/>
     </row>
-    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A547" s="23" t="s">
         <v>102</v>
       </c>
@@ -19016,7 +18984,7 @@
       </c>
       <c r="J547" s="8"/>
     </row>
-    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548" s="23" t="s">
         <v>102</v>
       </c>
@@ -19045,7 +19013,7 @@
       <c r="I548" s="23"/>
       <c r="J548" s="8"/>
     </row>
-    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549" s="23" t="s">
         <v>102</v>
       </c>
@@ -19076,7 +19044,7 @@
       </c>
       <c r="J549" s="8"/>
     </row>
-    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A550" s="23" t="s">
         <v>102</v>
       </c>
@@ -19107,7 +19075,7 @@
       </c>
       <c r="J550" s="8"/>
     </row>
-    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A551" s="23" t="s">
         <v>102</v>
       </c>
@@ -19138,7 +19106,7 @@
       </c>
       <c r="J551" s="8"/>
     </row>
-    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552" s="23" t="s">
         <v>102</v>
       </c>
@@ -19169,7 +19137,7 @@
       </c>
       <c r="J552" s="8"/>
     </row>
-    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A553" s="23" t="s">
         <v>102</v>
       </c>
@@ -19195,28 +19163,13 @@
         <f t="shared" ref="H553" si="15">B553&amp;" "&amp;E553&amp;" "&amp;C553</f>
         <v>NI-Industrial Communications for EtherCAT 2015 15.0.0f3</v>
       </c>
-      <c r="I553" s="69" t="s">
+      <c r="I553" s="55" t="s">
         <v>448</v>
       </c>
       <c r="J553" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I553" xr:uid="{F7F44E2F-0633-42B7-8978-CE6606F45AA2}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="2019"/>
-        <filter val="2019 SP1 f1"/>
-        <filter val="2019 SP1 f3"/>
-        <filter val="2019 SP1 f5"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters blank="1">
-        <filter val="Development"/>
-        <filter val="Runtime"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:I553" xr:uid="{F7F44E2F-0633-42B7-8978-CE6606F45AA2}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
   </mergeCells>
@@ -19249,786 +19202,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA850143-DCCE-4BF1-9BB6-544E622D5A56}">
-  <dimension ref="A1:D95"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.140625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="70" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="40.140625" customWidth="1"/>
-    <col min="7" max="7" width="33" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
-        <v>459</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71" t="s">
-        <v>475</v>
-      </c>
-      <c r="D1" s="71"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
-        <v>460</v>
-      </c>
-      <c r="B12" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="72" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="72">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="72"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="72"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="72" t="s">
-        <v>461</v>
-      </c>
-      <c r="B27" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="72" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="72" t="s">
-        <v>462</v>
-      </c>
-      <c r="B31" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="72" t="s">
-        <v>463</v>
-      </c>
-      <c r="B32" s="72" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="72" t="s">
-        <v>464</v>
-      </c>
-      <c r="B33" s="72" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="72" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="72" t="s">
-        <v>465</v>
-      </c>
-      <c r="B36" s="72"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="72" t="s">
-        <v>466</v>
-      </c>
-      <c r="B37" s="72" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="72" t="s">
-        <v>467</v>
-      </c>
-      <c r="B38" s="72" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="72"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="72"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="72" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="72" t="s">
-        <v>468</v>
-      </c>
-      <c r="B51" s="72" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="72" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="72" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" s="72" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="72" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="72" t="s">
-        <v>424</v>
-      </c>
-      <c r="B58" s="72" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="72"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="72" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="72" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="B68" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B69" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B70" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="72" t="s">
-        <v>469</v>
-      </c>
-      <c r="B71" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" s="72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" s="72">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" s="72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" s="72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" s="72">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="B78" s="72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="B80" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81" s="72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="B82" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="B83" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="B84" s="72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="B85" s="72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="B86" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="B87" s="72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="B88" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="B89" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="72" t="s">
-        <v>470</v>
-      </c>
-      <c r="B90" s="72" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="72" t="s">
-        <v>471</v>
-      </c>
-      <c r="B91" s="72" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="72" t="s">
-        <v>472</v>
-      </c>
-      <c r="B92" s="72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="72" t="s">
-        <v>473</v>
-      </c>
-      <c r="B93" s="72" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="72" t="s">
-        <v>474</v>
-      </c>
-      <c r="B94" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="B95" s="72" t="s">
-        <v>162</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9C278C-0E9A-4A4E-A105-D1E3978F6A38}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S296"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:R2"/>
+      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -20054,46 +19233,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>449</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="63"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="66"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
@@ -20535,7 +19714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>19</v>
       </c>
@@ -22519,7 +21698,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="37" t="s">
         <v>19</v>
       </c>
@@ -22583,7 +21762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="37" t="s">
         <v>19</v>
       </c>
@@ -22647,7 +21826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="37" t="s">
         <v>19</v>
       </c>
@@ -22939,17 +22118,16 @@
         <f>Originals!F259</f>
         <v>Development</v>
       </c>
-      <c r="K47" s="38" t="str">
-        <f>Originals!G259</f>
-        <v>JKI</v>
+      <c r="K47" s="38" t="s">
+        <v>16</v>
       </c>
       <c r="L47" s="38" t="str">
         <f>Originals!H259</f>
         <v xml:space="preserve">JKI VIPM </v>
       </c>
-      <c r="M47" s="38">
+      <c r="M47" s="38" t="str">
         <f>Originals!I259</f>
-        <v>0</v>
+        <v>LabVIEW 2019</v>
       </c>
       <c r="N47" s="37" t="s">
         <v>19</v>
@@ -24504,7 +23682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="37" t="s">
         <v>19</v>
       </c>
@@ -28472,7 +27650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" s="37" t="s">
         <v>19</v>
       </c>
@@ -28536,7 +27714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" s="37" t="s">
         <v>19</v>
       </c>
@@ -28600,7 +27778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" s="37" t="s">
         <v>19</v>
       </c>
@@ -28920,7 +28098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" s="37" t="s">
         <v>19</v>
       </c>
@@ -28984,7 +28162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" s="37" t="s">
         <v>19</v>
       </c>
@@ -29048,7 +28226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" s="37" t="s">
         <v>19</v>
       </c>
@@ -29112,7 +28290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" s="37" t="s">
         <v>19</v>
       </c>
@@ -29624,7 +28802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" s="37" t="s">
         <v>19</v>
       </c>
@@ -29688,7 +28866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" s="37" t="s">
         <v>19</v>
       </c>
@@ -29752,7 +28930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" s="37" t="s">
         <v>19</v>
       </c>
@@ -29816,7 +28994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" s="37" t="s">
         <v>19</v>
       </c>
@@ -29944,7 +29122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" s="37" t="s">
         <v>19</v>
       </c>
@@ -30008,7 +29186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" s="37" t="s">
         <v>19</v>
       </c>
@@ -30292,9 +29470,8 @@
         <f>Originals!D388</f>
         <v>32</v>
       </c>
-      <c r="I162" s="38" t="str">
-        <f>Originals!E388</f>
-        <v>2019</v>
+      <c r="I162" s="38">
+        <v>2015</v>
       </c>
       <c r="J162" s="38" t="str">
         <f>Originals!F388</f>
@@ -33023,7 +32200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" s="37" t="s">
         <v>19</v>
       </c>
@@ -33087,7 +32264,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" s="37" t="s">
         <v>19</v>
       </c>
@@ -34974,9 +34151,8 @@
         <f>Originals!D76</f>
         <v>32</v>
       </c>
-      <c r="I235" s="50" t="str">
-        <f>Originals!E76</f>
-        <v>2019</v>
+      <c r="I235" s="50">
+        <v>2015</v>
       </c>
       <c r="J235" s="50" t="str">
         <f>Originals!F76</f>
@@ -35010,7 +34186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A236" s="37" t="s">
         <v>19</v>
       </c>
@@ -37378,7 +36554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="273" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A273" s="37" t="s">
         <v>19</v>
       </c>
@@ -37762,7 +36938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A279" s="37" t="s">
         <v>19</v>
       </c>
@@ -37826,7 +37002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A280" s="37" t="s">
         <v>19</v>
       </c>
@@ -37890,7 +37066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A281" s="37" t="s">
         <v>19</v>
       </c>
@@ -37954,7 +37130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A282" s="37" t="s">
         <v>19</v>
       </c>
@@ -38018,7 +37194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="283" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A283" s="37" t="s">
         <v>19</v>
       </c>
@@ -38082,7 +37258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A284" s="37" t="s">
         <v>19</v>
       </c>
@@ -38146,7 +37322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A285" s="37" t="s">
         <v>19</v>
       </c>
@@ -38210,7 +37386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A286" s="37" t="s">
         <v>19</v>
       </c>
@@ -38915,14 +38091,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:R296" xr:uid="{BE9C278C-0E9A-4A4E-A105-D1E3978F6A38}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Development"/>
-        <filter val="Runtime"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:R296" xr:uid="{BE9C278C-0E9A-4A4E-A105-D1E3978F6A38}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:R2"/>
   </mergeCells>
@@ -38930,13 +38099,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14EC44D-299B-4E51-833E-785FEE1FBFDE}">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H107" sqref="H107"/>
+      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -38953,26 +38122,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
@@ -41932,7 +41101,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="53" t="s">
         <v>38</v>
       </c>
@@ -41958,7 +41127,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="53" t="s">
         <v>38</v>
       </c>
@@ -41984,32 +41153,63 @@
         <v>444</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="69" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="B115" s="69" t="s">
+      <c r="B115" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="C115" s="69">
+      <c r="C115" s="55">
         <v>64</v>
       </c>
-      <c r="D115" s="69">
+      <c r="D115" s="55">
         <v>2015</v>
       </c>
-      <c r="E115" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="F115" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" s="69" t="str">
+      <c r="E115" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" s="55" t="str">
         <f t="shared" ref="G115" si="7">A115&amp;" "&amp;D115&amp;" "&amp;B115</f>
         <v>NI-Industrial Communications for EtherCAT 2015 15.0.0f3</v>
       </c>
-      <c r="H115" s="69" t="s">
+      <c r="H115" s="55" t="s">
         <v>448</v>
       </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="73" t="s">
+        <v>460</v>
+      </c>
+      <c r="B116" s="74"/>
+      <c r="C116" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="E116" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="73"/>
+      <c r="H116" s="73"/>
+      <c r="I116" s="8"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="70"/>
+      <c r="B117" s="71"/>
+      <c r="C117" s="72"/>
+      <c r="D117" s="72"/>
+      <c r="E117" s="72"/>
+      <c r="F117" s="72"/>
+      <c r="G117" s="70"/>
+      <c r="H117" s="70"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:H114" xr:uid="{43BC10AA-D6F8-4ACA-AD1B-E70DA740C335}">
